--- a/Куделин/Солнечная энергетика/Solar Europe Spain.xlsx
+++ b/Куделин/Солнечная энергетика/Solar Europe Spain.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>408.94252225869752</c:v>
+                  <c:v>0.16178768065625038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.67854886771204</c:v>
+                  <c:v>0.21128629852469874</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>607.69330101024752</c:v>
+                  <c:v>0.27475838458065044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>729.1821224533013</c:v>
+                  <c:v>0.35591901042840512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>862.55593955128597</c:v>
+                  <c:v>0.46001119015183928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1010.082795150377</c:v>
+                  <c:v>0.59284932179253191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>38.750449512421298</c:v>
+                  <c:v>13.597366688893265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.730020619026263</c:v>
+                  <c:v>14.642368203324677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.900262532407446</c:v>
+                  <c:v>13.262938120237001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.15215438117135</c:v>
+                  <c:v>16.098296006917124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.888675544320236</c:v>
+                  <c:v>21.842515227492502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.529922199482307</c:v>
+                  <c:v>28.101904125181466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627530672"/>
-        <c:axId val="1627546448"/>
+        <c:axId val="-85342576"/>
+        <c:axId val="-85368144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627530672"/>
+        <c:axId val="-85342576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627546448"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627546448"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627530672"/>
+        <c:crossAx val="-85342576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6249425365666</c:v>
+                  <c:v>6.0350285145407243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.1009994378496</c:v>
+                  <c:v>7.2518456333770098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.6847870532706</c:v>
+                  <c:v>8.5640936066406841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.3963425636102</c:v>
+                  <c:v>10.594401679832167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793.9965725091176</c:v>
+                  <c:v>12.515511192632493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4286624418019</c:v>
+                  <c:v>6.0773728928189428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.8187831687781</c:v>
+                  <c:v>7.3631478121553311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2366759015999</c:v>
+                  <c:v>8.7902883790691195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.307205634258</c:v>
+                  <c:v>11.01898806260847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7616360660775</c:v>
+                  <c:v>13.217644828853944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627540464"/>
-        <c:axId val="1627527408"/>
+        <c:axId val="-85365968"/>
+        <c:axId val="-85342032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627540464"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627527408"/>
+        <c:crossAx val="-85342032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627527408"/>
+        <c:axId val="-85342032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627540464"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6730547411698</c:v>
+                  <c:v>6.1843645931720364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.5818828869758</c:v>
+                  <c:v>7.602805548393448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.1107633192305</c:v>
+                  <c:v>9.235818822643127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0424518681668</c:v>
+                  <c:v>11.808725543317495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1591216730171</c:v>
+                  <c:v>14.474659294614765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0709243794984</c:v>
+                  <c:v>6.1862782776885981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.4129198085657</c:v>
+                  <c:v>7.6070645566405206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5391930226656</c:v>
+                  <c:v>9.243786474480677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2270528332679</c:v>
+                  <c:v>11.823015167237184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4711924132375</c:v>
+                  <c:v>14.497737891403812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627550800"/>
-        <c:axId val="1627553520"/>
+        <c:axId val="-85348560"/>
+        <c:axId val="-85359984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627550800"/>
+        <c:axId val="-85348560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627553520"/>
+        <c:crossAx val="-85359984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627553520"/>
+        <c:axId val="-85359984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627550800"/>
+        <c:crossAx val="-85348560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>4.4908999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>4.7833411111111113E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>5.6997244444444449E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>6.7151500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>8.0289055555555572E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>7.4515250000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>0.1942865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>0.31479300555555562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>0.4688157444444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>0.75098587288888896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>1.5125292461111111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>2.5696538138888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>3.8781358194444442</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>7.5893511322222222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>14.32391649666268</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>23.49694855276784</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>47.169829848214562</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>72.209920163895447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>86.539293843353136</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>98.23745086832993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>109.12889129282949</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>113.33675806052599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>123.6098622674243</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>137.07028077749499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>151.15856223130299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>176.52050900938389</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>198.72932143421099</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>246.43538769986671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627542640"/>
-        <c:axId val="1627543184"/>
+        <c:axId val="-85344208"/>
+        <c:axId val="-85352912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627542640"/>
+        <c:axId val="-85344208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627543184"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627543184"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542640"/>
+        <c:crossAx val="-85344208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627526864"/>
-        <c:axId val="1627543728"/>
+        <c:axId val="-85372496"/>
+        <c:axId val="-85353456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627526864"/>
+        <c:axId val="-85372496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627543728"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627543728"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627526864"/>
+        <c:crossAx val="-85372496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627542096"/>
-        <c:axId val="1627544816"/>
+        <c:axId val="-85352368"/>
+        <c:axId val="-85371952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627544816"/>
+        <c:crossAx val="-85371952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627544816"/>
+        <c:axId val="-85371952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542096"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627545360"/>
-        <c:axId val="1627545904"/>
+        <c:axId val="-85351824"/>
+        <c:axId val="-85362160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627545360"/>
+        <c:axId val="-85351824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627545904"/>
+        <c:crossAx val="-85362160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627545904"/>
+        <c:axId val="-85362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627545360"/>
+        <c:crossAx val="-85351824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:AF3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.54916395714367605</v>
+        <v>-1.401048938234525E-2</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.71953395245883156</v>
+        <v>2.0422107669647218E-4</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.93386668060937428</v>
+        <v>2.4522543593350447E-4</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2097303592699842</v>
+        <v>2.930029581054177E-4</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.5632252706721705</v>
+        <v>3.5174264634114515E-4</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0233140506129179</v>
+        <v>3.7387994029779972E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.5931115448364275</v>
+        <v>5.8206225852388497E-4</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3316604275757595</v>
+        <v>7.560160433745626E-4</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.271253273112448</v>
+        <v>9.6864858086472135E-4</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.4733458660442995</v>
+        <v>1.2528011984812707E-3</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>6.9926674543535983</v>
+        <v>1.6569346986717026E-3</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>8.9106553185406838</v>
+        <v>2.1669513245274907E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.33554225897721</v>
+        <v>2.818630979277779E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.346782004855269</v>
+        <v>3.771836514335086E-3</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>18.05456493292596</v>
+        <v>5.1089068820298371E-3</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>22.755305580094443</v>
+        <v>6.9076097025361797E-3</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>28.485142551861728</v>
+        <v>9.812382902546225E-3</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>35.433802143758399</v>
+        <v>1.3564247837321611E-2</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>43.783344335268744</v>
+        <v>1.7901115616419289E-2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>53.637632556140858</v>
+        <v>2.3315426646934721E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>64.867303329987806</v>
+        <v>3.0169307680404826E-2</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>77.656574409596999</v>
+        <v>3.8577219114972125E-2</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>91.736026609014488</v>
+        <v>4.9498617868448357E-2</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>107.01475214253546</v>
+        <v>6.3472086055951712E-2</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>121.48882144305375</v>
+        <v>8.11606258477547E-2</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>133.3738170979847</v>
+        <v>0.10409217972343414</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>147.52685559909099</v>
+        <v>0.13283813164069266</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.56416395714367606</v>
+        <v>9.8951061765474926E-4</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.2836979096025076</v>
+        <v>1.1937316943512214E-3</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.2175645902118819</v>
+        <v>1.438957130284726E-3</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.4272949494818663</v>
+        <v>1.7319600883901436E-3</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>4.9905202201540373</v>
+        <v>2.0837027347312886E-3</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>7.0138342707669548</v>
+        <v>2.4575826750290884E-3</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.6069458156033818</v>
+        <v>3.0396449335529734E-3</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>12.938606243179141</v>
+        <v>3.795660976927536E-3</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.209859516291587</v>
+        <v>4.7643095577922573E-3</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.683205382335885</v>
+        <v>6.0171107562735282E-3</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>29.675872836689482</v>
+        <v>7.6740454549452308E-3</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>38.58652815523017</v>
+        <v>9.8409967794727219E-3</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>49.922070414207383</v>
+        <v>1.2659627758750501E-2</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>64.268852419062654</v>
+        <v>1.6431464273085589E-2</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>82.32341735198861</v>
+        <v>2.1540371155115427E-2</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>105.07872293208305</v>
+        <v>2.8447980857651607E-2</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>133.56386548394477</v>
+        <v>3.8260363760197834E-2</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>168.99766762770315</v>
+        <v>5.1824611597519443E-2</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>212.78101196297189</v>
+        <v>6.9725727213938729E-2</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>266.41864451911272</v>
+        <v>9.3041153860873443E-2</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>331.28594784910052</v>
+        <v>0.12321046154127827</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>408.94252225869752</v>
+        <v>0.16178768065625038</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>500.67854886771204</v>
+        <v>0.21128629852469874</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>607.69330101024752</v>
+        <v>0.27475838458065044</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>729.1821224533013</v>
+        <v>0.35591901042840512</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>862.55593955128597</v>
+        <v>0.46001119015183928</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1010.082795150377</v>
+        <v>0.59284932179253191</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>976.32435084673943</v>
+        <v>-33.165594981845004</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>581.70249975804199</v>
+        <v>-19.006711492501257</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>423207.87664192391</v>
+        <v>1238.4683355247926</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.30488503556856333</v>
+        <v>1.2123087643873751E-4</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.6146731774681828</v>
+        <v>1.3938797130496689E-4</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.8512907740552347</v>
+        <v>1.8390188371425549E-4</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>11.630111642461525</v>
+        <v>2.3311304274251156E-4</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>24.725957339840757</v>
+        <v>2.533285186364002E-4</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>48.857783132788207</v>
+        <v>4.6407574420320692E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>91.71789115500313</v>
+        <v>7.2686074530889583E-4</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>166.34824680409355</v>
+        <v>1.3841628421437126E-3</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>294.2548963046674</v>
+        <v>2.6250959750897377E-3</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>512.66946457588006</v>
+        <v>1.2238025398388333E-3</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>873.60873188423261</v>
+        <v>1.23934681553676E-2</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1449.9743064686566</v>
+        <v>0.24816239248966934</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>2241.4610033854265</v>
+        <v>6.5809712254508721</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>3387.4632292767415</v>
+        <v>36.608589083253769</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>5663.9153814671517</v>
+        <v>49.602275212733893</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>9292.8031864886179</v>
+        <v>74.841328821886393</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>14786.06291074708</v>
+        <v>142.26881281139396</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>24300.687709986654</v>
+        <v>170.5391661297522</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>39643.989749906563</v>
+        <v>185.04980046982371</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>63786.662113407954</v>
+        <v>189.48592161189327</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>100897.86776229284</v>
+        <v>182.74957767300879</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>155726.40535667015</v>
+        <v>200.47398166481108</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>238080.12397873763</v>
+        <v>157.06891272314672</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>351156.99909026269</v>
+        <v>220.03356465771216</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>501993.47874538769</v>
+        <v>412.5457443967988</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>697989.96875928028</v>
+        <v>709.58244783359578</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>953209.23805630719</v>
+        <v>1099.9566904997826</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>2892.0892860620907</v>
+        <v>-98.24384880873005</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>2992.6396185342428</v>
+        <v>-97.78235069329871</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1867.9272901279739</v>
+        <v>105.19156988151484</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.55216395714367605</v>
+        <v>1.1010489382345251E-2</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2706979096025077</v>
+        <v>1.1806268305648779E-2</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.2025645902118818</v>
+        <v>1.3561042869715274E-2</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.4102949494818664</v>
+        <v>1.5268039911609858E-2</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.9725202201540375</v>
+        <v>1.5916297265268709E-2</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.9898342707669547</v>
+        <v>2.1542417324970912E-2</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.5769458156033824</v>
+        <v>2.6960355066447027E-2</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.897606243179141</v>
+        <v>3.7204339023072464E-2</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>17.153859516291586</v>
+        <v>5.1235690442207743E-2</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>22.642205382335884</v>
+        <v>3.4982889243726473E-2</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>29.556872836689482</v>
+        <v>0.11132595454505477</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>38.078528155230167</v>
+        <v>0.49815900322052731</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>47.34407041420738</v>
+        <v>2.5653403722412493</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>58.201917745695816</v>
+        <v>6.0505032090937503</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>75.258988708772534</v>
+        <v>7.0428882720609653</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>96.399186648480693</v>
+        <v>8.6510883027447125</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>121.59795603030126</v>
+        <v>11.927649089883301</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>155.88677849640314</v>
+        <v>13.059064519702481</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>199.10798514852829</v>
+        <v>13.603301087229662</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>252.56021482689619</v>
+        <v>13.765388538355657</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>317.64424717330053</v>
+        <v>13.518490214258721</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>394.6218510886975</v>
+        <v>14.158883489343751</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>487.93454886771201</v>
+        <v>12.5327137014753</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>592.58501423024757</v>
+        <v>14.83352839541935</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>708.51498131330129</v>
+        <v>20.311222129571593</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>835.45793955128602</v>
+        <v>26.63798880984816</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>976.32435084673943</v>
+        <v>33.165594981845004</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7725061851965198</v>
+        <v>-1.9326449484983365E-2</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.8961946627284503</v>
+        <v>-2.5835067638063577E-3</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4489836131218974</v>
+        <v>-4.2914817398748807E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9168789058355573</v>
+        <v>-2.4828771281699474E-3</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.3985890780540702</v>
+        <v>-4.4803550939019245E-3</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>6.9858742466577981</v>
+        <v>-4.6756634274395335E-3</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.472759103349941</v>
+        <v>-1.3522732747353779E-4</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.0841539634152113</v>
+        <v>-5.5119294353923182E-4</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.7582742217413507</v>
+        <v>8.4612579426629302E-4</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.5739859767599533</v>
+        <v>2.4686662920156048E-3</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.425239050448544</v>
+        <v>6.8735959582034937E-3</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.302354723099427</v>
+        <v>9.0650007266921493E-3</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.333926374241081</v>
+        <v>1.8441286142511337E-2</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.241816458298594</v>
+        <v>2.6497543462030121E-2</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>14.212282638429709</v>
+        <v>-0.55645198754174185</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>16.311267457512844</v>
+        <v>-1.7512053033474977</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>17.823642556372448</v>
+        <v>-0.14898450888419634</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>19.295857586851277</v>
+        <v>-0.26274557852671898</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>21.185426391424617</v>
+        <v>-0.67175482947188803</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>22.726744306446093</v>
+        <v>-0.3802202918900055</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>23.853463983865122</v>
+        <v>-0.1699405227004771</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>25.108748836621302</v>
+        <v>-4.4333986906734513E-2</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>26.409349449026259</v>
+        <v>0.32169703332467625</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>28.156262532407446</v>
+        <v>0.51893812023700114</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>29.04386760117135</v>
+        <v>0.9900092269171239</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>30.221534404320238</v>
+        <v>1.175374087492504</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>33.431922199482308</v>
+        <v>1.0039041251814669</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.7875061851965199</v>
+        <v>-4.3264494849833655E-3</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.9081946627284498</v>
+        <v>9.4164932361936425E-3</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.4619836131218973</v>
+        <v>8.7085182601251178E-3</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>5.931878905835557</v>
+        <v>1.2517122871830051E-2</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.4155890780540705</v>
+        <v>1.2519644906098077E-2</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>7.0038742466577979</v>
+        <v>1.3324336572560465E-2</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>7.496759103349941</v>
+        <v>2.3864772672526464E-2</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.1141539634152107</v>
+        <v>2.9448807056460767E-2</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>8.7992742217413511</v>
+        <v>4.1846125794266296E-2</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>9.6299859767599525</v>
+        <v>5.8468666292015609E-2</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>10.466239050448545</v>
+        <v>4.7873595958203494E-2</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>11.421354723099427</v>
+        <v>0.12806500072669214</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>12.84192637424108</v>
+        <v>0.5264412861425114</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>15.819816458298593</v>
+        <v>2.6044975434620299</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>20.279217311796543</v>
+        <v>5.5104826858250942</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>23.375696100728923</v>
+        <v>5.3132233398685829</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>26.503178839974812</v>
+        <v>8.5305517747181678</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>31.261767040494775</v>
+        <v>11.703163875116781</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>34.296315522724619</v>
+        <v>12.439134301828112</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>36.399771120889696</v>
+        <v>13.292806522553596</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>37.711893676081651</v>
+        <v>13.688489169516053</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>38.750449512421298</v>
+        <v>13.597366688893265</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>40.730020619026263</v>
+        <v>14.642368203324677</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>40.900262532407446</v>
+        <v>13.262938120237001</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>44.15215438117135</v>
+        <v>16.098296006917124</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>50.888675544320236</v>
+        <v>21.842515227492502</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>60.529922199482307</v>
+        <v>28.101904125181466</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>26.771477895844768</v>
+        <v>-5.6565401784560727</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>2.3416995534234708</v>
+        <v>-4.9332356973493372</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>3949.4906433039246</v>
+        <v>46.245895729957638</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.254446954457178</v>
+        <v>2.6655295278571359E-4</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.962930786005103</v>
+        <v>1.2841520726245909E-5</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.669630481618483</v>
+        <v>3.9582742483179067E-5</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.985792470698435</v>
+        <v>2.0096187346269258E-5</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>40.929146011636732</v>
+        <v>3.0034291955256744E-5</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>48.71864449915676</v>
+        <v>1.1396978961597004E-4</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>55.752491507459212</v>
+        <v>3.764101435977805E-5</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>65.175814917006718</v>
+        <v>1.334300584188706E-4</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>76.444844116566841</v>
+        <v>2.003321550317339E-4</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>91.948652062499008</v>
+        <v>3.0515430202180229E-4</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>107.0653559671273</v>
+        <v>5.0589653519168857E-3</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>119.10131131219659</v>
+        <v>0.14435060367280844</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>105.34818461584165</v>
+        <v>4.2088931564045931</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>95.118703110853659</v>
+        <v>11.988470878543431</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>174.6306395552426</v>
+        <v>2.4147480384917901</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>215.97711337052536</v>
+        <v>11.332062835149593</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>211.33220121076556</v>
+        <v>11.801682382151242</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>329.45436887449489</v>
+        <v>1.9816903968961113</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>425.32003714511126</v>
+        <v>1.5224907326885639</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>508.11207340401711</v>
+        <v>0.31992957005954514</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>579.3741910708078</v>
+        <v>2.1891631442172333E-3</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>596.81406985983665</v>
+        <v>0.5231693723890839</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>783.21735008856319</v>
+        <v>3.6038018353941643</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>665.22601321277364</v>
+        <v>3.4053116760890978</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>551.5458469379937</v>
+        <v>20.874345850095064</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>565.99624285511698</v>
+        <v>27.620120194058178</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>716.71202872770505</v>
+        <v>31.996446790487859</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>79.303055718595687</v>
+        <v>-16.755926687790438</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>12.047159606833269</v>
+        <v>-25.37963409405295</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>260.82329915047183</v>
+        <v>18.394157034818868</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.7755061851965199</v>
+        <v>1.6326449484983366E-2</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.8951946627284499</v>
+        <v>3.5835067638063569E-3</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4469836131218976</v>
+        <v>6.2914817398748817E-3</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.9148789058355566</v>
+        <v>4.48287712816995E-3</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.3975890780540707</v>
+        <v>5.480355093901922E-3</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.9798742466577979</v>
+        <v>1.0675663427439535E-2</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.4667591033499408</v>
+        <v>6.1352273274735344E-3</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.0731539634152103</v>
+        <v>1.1551192943539235E-2</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.7432742217413519</v>
+        <v>1.4153874205733705E-2</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.5889859767599521</v>
+        <v>1.7468666292015607E-2</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.347239050448545</v>
+        <v>7.1126404041796501E-2</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>10.913354723099427</v>
+        <v>0.37993499927330787</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>10.26392637424108</v>
+        <v>2.0515587138574887</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>9.7528817849317573</v>
+        <v>3.462437129904806</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>13.214788668580463</v>
+        <v>1.5539459573909866</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>14.69615981712656</v>
+        <v>3.3663129437337806</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>14.537269386331312</v>
+        <v>3.4353576789253317</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>18.150877909194776</v>
+        <v>1.4077252561832196</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>20.623288708281017</v>
+        <v>1.2338925126154887</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>22.541341428673164</v>
+        <v>0.5656231696629348</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>24.070193000281652</v>
+        <v>4.6788493716054091E-2</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>24.429778342421297</v>
+        <v>0.72330448110673551</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>27.986020619026263</v>
+        <v>1.8983682033246776</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>25.791975752407446</v>
+        <v>1.8453486597629993</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>23.485013241171352</v>
+        <v>4.5688451330828741</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>23.790675544320237</v>
+        <v>5.2554847725074971</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>26.771477895844768</v>
+        <v>5.6565401784560727</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.1484873227916165E-5</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283377</v>
+        <v>2.255028742055229E-5</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>3.264401835059369E-5</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>5.0484274171957652E-5</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003899</v>
+        <v>2.5015623958197369E-5</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>3.9877470401494981E-4</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>5.9066896877456483E-4</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819014</v>
+        <v>1.0015964095042747E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>2.1538724319528878E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905567</v>
+        <v>6.4708216019570067E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>1.183982504199152E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>1.9296375533823434E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872999</v>
+        <v>5.8129332708810974E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>0.12844364498600547</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>0.22097471610234304</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.62149948073024475</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404447</v>
+        <v>0.85291198045037264</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>0.7483376274990472</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>0.79745532388666618</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>0.87926320653487533</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.9225529118911</v>
+        <v>0.67778518879361105</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>0.99330045793944954</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>1.2168171188362855</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>1.3122479732636743</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>2.0303080731914829</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>1.9211095128003262</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>9.9797167305578611</v>
+        <v>1.5033441140150356E-2</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.973574377795911</v>
+        <v>1.5044926013378273E-2</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.741229871424249</v>
+        <v>1.5067476300798825E-2</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.650375376936772</v>
+        <v>1.5100120319149419E-2</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.012669727071636</v>
+        <v>1.5150604593321376E-2</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.696518217872026</v>
+        <v>1.5175620217279574E-2</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.725439171332027</v>
+        <v>1.5574394921294523E-2</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.555772735901201</v>
+        <v>1.6165063890069088E-2</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.281687939720214</v>
+        <v>1.7166660299573363E-2</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.05809164406645</v>
+        <v>1.9320532731526251E-2</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.74958598197202</v>
+        <v>2.5791354333483257E-2</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.81783531733296</v>
+        <v>3.7631179375474777E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.87531245231605</v>
+        <v>5.6927554909298211E-2</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.43981596418905</v>
+        <v>0.11505688761810919</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.50529624351316</v>
+        <v>0.24350053260411464</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>413.00466915671518</v>
+        <v>0.46447524870645768</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.82773993282262</v>
+        <v>1.0859747294367024</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.3511909868671</v>
+        <v>1.938886709887075</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.67474949177438</v>
+        <v>2.6872243373861222</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.29645916417189</v>
+        <v>3.4846796612727884</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.7481798133914</v>
+        <v>4.3639428678076637</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6707327252825</v>
+        <v>5.0417280566012748</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6249425365666</v>
+        <v>6.0350285145407243</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.1009994378496</v>
+        <v>7.2518456333770098</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.6847870532706</v>
+        <v>8.5640936066406841</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.3963425636102</v>
+        <v>10.594401679832167</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1793.9965725091176</v>
+        <v>12.515511192632493</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1760.2381282054801</v>
+        <v>-21.242933111005044</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>667.88806665019763</v>
+        <v>-11.963989997606319</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4358889.5788258966</v>
+        <v>799.69052283408894</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.355376820643087</v>
+        <v>9.2017651507566924E-6</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.97648820237987</v>
+        <v>4.1817224001911576E-6</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.76676571172482</v>
+        <v>4.5530511694935683E-9</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>468.00293019945423</v>
+        <v>3.609542801708912E-6</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>783.70153312782099</v>
+        <v>8.1190541836012327E-6</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1344.8735924401556</v>
+        <v>7.786967854968501E-5</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2180.4640394035696</v>
+        <v>2.080980818867732E-4</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3662.0377192777719</v>
+        <v>6.1677405158435045E-4</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6119.2582536424889</v>
+        <v>1.5080282722887319E-3</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10407.486987513854</v>
+        <v>4.6999930104482473E-4</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17326.611165957329</v>
+        <v>8.6878516269862701E-3</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28328.200664547738</v>
+        <v>0.22124682741570678</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>45923.338124285568</v>
+        <v>6.3558062733956096</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>69365.274599429526</v>
+        <v>35.424849176489168</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>100134.82268762872</v>
+        <v>46.525060290136523</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>163478.81307286033</v>
+        <v>67.487227807064983</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>243899.50760424545</v>
+        <v>118.37297960300086</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>354311.01695310656</v>
+        <v>124.81363810405625</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>505523.44965013204</v>
+        <v>120.68785606492224</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>699628.57714692771</v>
+        <v>107.61468970450531</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>912228.38649060624</v>
+        <v>86.076789943762748</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1193228.6569798295</v>
+        <v>86.098785301689631</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1534825.9897802917</v>
+        <v>45.010298392705636</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1951588.6392191369</v>
+        <v>61.72366749035077</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>2286197.3615531083</v>
+        <v>146.48375959475499</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2529048.8183605662</v>
+        <v>272.3687575134465</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>3098438.2679883321</v>
+        <v>451.26220715863445</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>5214.2157747944884</v>
+        <v>-62.926279777400985</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>3436.0318029147129</v>
+        <v>-61.550209045820914</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6595.7831164854379</v>
+        <v>86.159200264132451</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9677167305578607</v>
+        <v>3.0334411401503562E-3</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.960574377795911</v>
+        <v>2.0449260133782732E-3</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.726229871424248</v>
+        <v>6.7476300798825425E-5</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.633375376936772</v>
+        <v>1.8998796808505827E-3</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.994669727071635</v>
+        <v>2.8493954066786224E-3</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.672518217872025</v>
+        <v>8.8243797827204269E-3</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.695439171332026</v>
+        <v>1.4425605078705475E-2</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.514772735901204</v>
+        <v>2.4834936109930913E-2</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.225687939720217</v>
+        <v>3.8833339700426642E-2</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>102.01709164406645</v>
+        <v>2.1679467268473751E-2</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.63058598197202</v>
+        <v>9.3208645666516737E-2</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.30983531733295</v>
+        <v>0.47036882062452523</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>214.29731245231605</v>
+        <v>2.5210724450907018</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>263.37288129082219</v>
+        <v>5.9518777857487271</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>316.44086760029705</v>
+        <v>6.8209281106119661</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>404.32513287311281</v>
+        <v>8.2150610348959052</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>493.8618304791791</v>
+        <v>10.879934724206798</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>595.24030185556705</v>
+        <v>11.172002421412925</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>711.0017226773308</v>
+        <v>10.985802477057479</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>836.43802947195536</v>
+        <v>10.373750030943743</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>955.10647913759135</v>
+        <v>9.2777578079923355</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1092.3500615552825</v>
+        <v>9.278943113398725</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1238.8809425365666</v>
+        <v>6.7089714854592755</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1396.9927126578496</v>
+        <v>7.8564411466229904</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1512.0176459132706</v>
+        <v>12.103047533359314</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1590.2983425636103</v>
+        <v>16.503598320167832</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1760.2381282054801</v>
+        <v>21.242933111005044</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.0523186881371618E-5</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>2.0661624603571932E-5</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460559</v>
+        <v>3.0553097657174885E-5</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>4.8020282248786156E-5</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187283</v>
+        <v>2.5957007848333158E-5</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>3.808130929131813E-4</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>5.7687726058274456E-4</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.06101008665874</v>
+        <v>9.9167935361336307E-4</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>2.1469898163530531E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359799</v>
+        <v>6.4726445793200083E-3</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>1.1918061581610961E-2</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>1.9482577059123971E-2</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371499</v>
+        <v>5.8606064626900392E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>0.12933187638653876</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>0.22186722590423913</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.62244911451558371</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705488</v>
+        <v>0.85073421572713315</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>0.74321661783748305</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>0.79297021759576092</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>0.88060009599406053</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173127</v>
+        <v>0.69196392461097833</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>1.0285002934217573</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>1.2857749193363883</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>1.4271405669137884</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>2.2286996835393502</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>2.1986567662454739</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3250805600049116</v>
+        <v>1.5027888255750981E-2</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.094494904627167</v>
+        <v>1.5038411442632352E-2</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.658210877016018</v>
+        <v>1.5059073067235924E-2</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.382654213762073</v>
+        <v>1.5089626164893099E-2</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.603726619776548</v>
+        <v>1.5137646447141885E-2</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.186596002395277</v>
+        <v>1.5163603454990219E-2</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.2875642270591</v>
+        <v>1.55444165479034E-2</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.281327030105786</v>
+        <v>1.6121293808486144E-2</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.342337116764526</v>
+        <v>1.7112973162099508E-2</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.62754470742196</v>
+        <v>1.9259962978452561E-2</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.03243946478176</v>
+        <v>2.5732607557772569E-2</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.96320676938495</v>
+        <v>3.765066913938353E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.93920175716926</v>
+        <v>5.7133246198507501E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.27738808354076</v>
+        <v>0.11573931082540789</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.72888635331879</v>
+        <v>0.24507118721194665</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.26788933976144</v>
+        <v>0.46693841311618578</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.4395770363858</v>
+        <v>1.0893875276317695</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.74171063344068</v>
+        <v>1.9401217433589026</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.62094181073974</v>
+        <v>2.6833383611963857</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.24503744191031</v>
+        <v>3.4763085787921466</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.18130336083141</v>
+        <v>4.3569086747862071</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2436344525627</v>
+        <v>5.0488725993971855</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4286624418019</v>
+        <v>6.0773728928189428</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.8187831687781</v>
+        <v>7.3631478121553311</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2366759015999</v>
+        <v>8.7902883790691195</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.307205634258</v>
+        <v>11.01898806260847</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7616360660775</v>
+        <v>13.217644828853944</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1861.0031917624399</v>
+        <v>-20.540799474783597</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>767.08022847987729</v>
+        <v>-11.26900090418078</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4359387.1473542759</v>
+        <v>799.77481421503421</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>69.107308397131561</v>
+        <v>9.1681072893147151E-6</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.79952932127787</v>
+        <v>4.1551212094545107E-6</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.42362478876018</v>
+        <v>3.4896272726601071E-9</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>375.02856312700078</v>
+        <v>3.6495281898610527E-6</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>654.6294066619422</v>
+        <v>8.1930678615594633E-6</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1167.0829656228736</v>
+        <v>7.8081903900660809E-5</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1958.7319913122612</v>
+        <v>2.0896389294052902E-4</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3391.9356925736711</v>
+        <v>6.1895002176366992E-4</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5819.6052306926449</v>
+        <v>1.512200856291593E-3</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10117.652976178199</v>
+        <v>4.7262920969825335E-4</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17138.328632499077</v>
+        <v>8.6988064929724614E-3</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28377.156687716237</v>
+        <v>0.22122849304102968</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>46380.447222292161</v>
+        <v>6.3547691904216732</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>70336.584598030022</v>
+        <v>35.416726243134605</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>101547.03660767381</v>
+        <v>46.503636112759175</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>165314.08884091984</v>
+        <v>67.446763782314108</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>245494.1552678938</v>
+        <v>118.29872920701391</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>354776.07552331494</v>
+        <v>124.78604403548837</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>504026.04200758814</v>
+        <v>120.77325229943517</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>696201.01119204133</v>
+        <v>107.78843881381238</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>909237.77388872742</v>
+        <v>86.20736250208968</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1196667.4495969031</v>
+        <v>85.966248733832401</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1556717.0168925133</v>
+        <v>44.443916986201266</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>2012739.4725636928</v>
+        <v>59.98717763122599</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2410472.1602698509</v>
+        <v>141.05963150483143</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2739717.5144163915</v>
+        <v>258.53462488277927</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>3463332.8797499887</v>
+        <v>421.92444306327008</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>5512.7042437850523</v>
+        <v>-60.846404206399662</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>3946.3380049046173</v>
+        <v>-57.974752697774314</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6580.6172262251721</v>
+        <v>86.162019468578762</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.3130805600049111</v>
+        <v>3.0278882557509806E-3</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.081494904627167</v>
+        <v>2.038411442632353E-3</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.643210877016017</v>
+        <v>5.9073067235924925E-5</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.365654213762074</v>
+        <v>1.910373835106902E-3</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.585726619776548</v>
+        <v>2.8623535528581132E-3</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.162596002395276</v>
+        <v>8.8363965450097819E-3</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.257564227059099</v>
+        <v>1.4455583452096599E-2</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.240327030105789</v>
+        <v>2.4878706191513857E-2</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.286337116764528</v>
+        <v>3.888702683790049E-2</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.58654470742196</v>
+        <v>2.1740037021547441E-2</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>130.91343946478176</v>
+        <v>9.3267392442227426E-2</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.45520676938494</v>
+        <v>0.47034933086061648</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>215.36120175716925</v>
+        <v>2.5208667538014922</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>265.2104534101739</v>
+        <v>5.9511953625414282</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>318.66445771010268</v>
+        <v>6.8193574560041341</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>406.58835305615906</v>
+        <v>8.212597870486178</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>495.47366758274228</v>
+        <v>10.87652192601173</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>595.63082150214063</v>
+        <v>11.170767387941098</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>709.94791499629616</v>
+        <v>10.989688453247215</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>834.38660774969378</v>
+        <v>10.382121113424384</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>953.53960268503135</v>
+        <v>9.2847920010137912</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1093.9229632825627</v>
+        <v>9.2717985706028152</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1247.6846624418019</v>
+        <v>6.666627107181057</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1418.710496388778</v>
+        <v>7.7451389678446692</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1552.5695347615999</v>
+        <v>11.876852760930879</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1655.2092056342581</v>
+        <v>16.079011937391527</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1861.0031917624399</v>
+        <v>20.540799474783597</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737854</v>
+        <v>7.7726293591772605E-6</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166009</v>
+        <v>1.5641552969828179E-5</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>2.5623352499630839E-5</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129818</v>
+        <v>4.3129752235726224E-5</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>3.068245528828166E-5</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573258</v>
+        <v>3.4572072541146776E-4</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>5.6234115573693642E-4</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398951</v>
+        <v>9.9943206281982028E-4</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>2.1861958371132174E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687753</v>
+        <v>6.6031911609912494E-3</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>1.2222305473328282E-2</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>1.9922586718918098E-2</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290303</v>
+        <v>5.9540455341911477E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>0.1304217360648065</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>0.22176112334636056</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.61971784888693149</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441114</v>
+        <v>0.84186887609593053</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>0.7338578611115254</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>0.79038150083279923</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>0.89381127086325618</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584695</v>
+        <v>0.73045850153450242</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>1.1045686243974435</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>1.4184409552214117</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>1.633013274249679</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>2.5729067206743679</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485029</v>
+        <v>2.6659337512972705</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6419318817343056</v>
+        <v>1.5012171819897391E-2</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.767828031708091</v>
+        <v>1.5019944449256568E-2</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8361660449246919</v>
+        <v>1.5035586002226396E-2</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.241959096098409</v>
+        <v>1.5061209354726027E-2</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.411831078711391</v>
+        <v>1.5104339106961753E-2</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.216741076289132</v>
+        <v>1.5135021562250035E-2</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.10950197486239</v>
+        <v>1.5480742287661503E-2</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.217244383028195</v>
+        <v>1.6043083443398439E-2</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.797181622427146</v>
+        <v>1.7042515506218259E-2</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.889438167129398</v>
+        <v>1.9228711343331477E-2</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.24457450081715</v>
+        <v>2.5831902504322726E-2</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.97314712335668</v>
+        <v>3.8054207977651008E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.30225586929333</v>
+        <v>5.7976794696569106E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.06487404958364</v>
+        <v>0.11751725003848058</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.78885550242268</v>
+        <v>0.24793898610328707</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.80540849871431</v>
+        <v>0.46970010944964763</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.45394921320269</v>
+        <v>1.0894179583365791</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.9480976746438</v>
+        <v>1.9312868344325096</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.68714302389617</v>
+        <v>2.665144695544035</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.15209625709883</v>
+        <v>3.4555261963768342</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.49480616274934</v>
+        <v>4.3493374672400904</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0515467985963</v>
+        <v>5.0797959687745928</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6730547411698</v>
+        <v>6.1843645931720364</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.5818828869758</v>
+        <v>7.602805548393448</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.1107633192305</v>
+        <v>9.235818822643127</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0424518681668</v>
+        <v>11.808725543317495</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1591216730171</v>
+        <v>14.474659294614765</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>2041.4006773693795</v>
+        <v>-19.283785009022772</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>940.66980174078333</v>
+        <v>-10.042909807797365</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4360279.8765314743</v>
+        <v>800.26171757878637</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.176405466031156</v>
+        <v>9.0731790725839582E-6</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>33.118045674533221</v>
+        <v>4.0801755780824227E-6</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.812970392132328</v>
+        <v>1.2663635544571176E-9</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.89954309347607</v>
+        <v>3.7589091662018731E-6</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>376.12068390959178</v>
+        <v>8.3848520074710478E-6</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>794.83064939468045</v>
+        <v>7.858784270177182E-5</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1527.2074746032733</v>
+        <v>2.1080884451730089E-4</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2935.0654554495945</v>
+        <v>6.2284768401317319E-4</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5437.7618670717875</v>
+        <v>1.5176855980832446E-3</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9969.7106044150642</v>
+        <v>4.7398900977198359E-4</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17457.167437170985</v>
+        <v>8.6802943909640249E-3</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29400.296678034349</v>
+        <v>0.22084904743951289</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>48278.748617314683</v>
+        <v>6.3505169552677776</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>72898.887267403232</v>
+        <v>35.395567677003001</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>104151.05569160337</v>
+        <v>46.464531245525684</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>167383.97931577612</v>
+        <v>67.401410006426516</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>245508.3975447705</v>
+        <v>118.29806724748377</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>351455.95583346405</v>
+        <v>124.98350751612489</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>497044.90405459551</v>
+        <v>121.1734687435888</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>687727.98540462623</v>
+        <v>108.22040114375378</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>906024.33442514937</v>
+        <v>86.3480139997978</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1211608.4605620964</v>
+        <v>85.39377448462271</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1612719.8040758013</v>
+        <v>43.028816670511063</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>2147612.8608867116</v>
+        <v>56.33224851799821</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2664872.1795936464</v>
+        <v>130.67512992330126</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>3153978.6961213239</v>
+        <v>233.76191341176408</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>4167316.7255641618</v>
+        <v>371.86436427421137</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>6047.0816101837208</v>
+        <v>-57.122848539987089</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>4839.3907844974865</v>
+        <v>-51.666977172492388</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6546.2430514936996</v>
+        <v>86.17797024578114</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6299318817343056</v>
+        <v>3.0121718198973906E-3</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7548280317080911</v>
+        <v>2.0199444492565687E-3</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8211660449246914</v>
+        <v>3.5586002226396796E-5</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.224959096098409</v>
+        <v>1.9387906452739741E-3</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.39383107871139</v>
+        <v>2.8956608930382453E-3</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.192741076289131</v>
+        <v>8.8649784377499655E-3</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>39.079501974862389</v>
+        <v>1.4519257712338496E-2</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.176244383028198</v>
+        <v>2.4956916556601563E-2</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.741181622427149</v>
+        <v>3.8957484493781738E-2</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.848438167129402</v>
+        <v>2.1771288656668525E-2</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>132.12557450081715</v>
+        <v>9.3168097495677268E-2</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.46514712335667</v>
+        <v>0.46994579202234898</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>219.72425586929333</v>
+        <v>2.5200232053034308</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>269.99793937621678</v>
+        <v>5.949417423328355</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>322.72442685920657</v>
+        <v>6.8164896571127933</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>409.12587221511194</v>
+        <v>8.2098361741527164</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>495.48803975955917</v>
+        <v>10.87649149530692</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>592.83720854334376</v>
+        <v>11.179602296867492</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>705.0141162094526</v>
+        <v>11.007882118899566</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>829.2936665648823</v>
+        <v>10.402903495839697</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>951.85310548694929</v>
+        <v>9.2923632085599088</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1100.7308756285963</v>
+        <v>9.240875201225407</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1269.9290547411699</v>
+        <v>6.5596354068279634</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1465.4735961069757</v>
+        <v>7.5054812316065522</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1632.4436221792305</v>
+        <v>11.431322317356871</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1775.9444518681669</v>
+        <v>15.289274456682504</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>2041.4006773693795</v>
+        <v>19.283785009022772</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983957</v>
+        <v>7.649659702096967E-6</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.0432763293987479</v>
+        <v>1.5436575774257014E-5</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>2.5418179139730102E-5</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336907</v>
+        <v>4.2924359738530371E-5</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>3.0839839792110371E-5</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412962</v>
+        <v>3.4431721120782403E-4</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>5.6161368826458322E-4</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.627528157613803</v>
+        <v>9.9933578672467202E-4</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>2.186736189084125E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432152</v>
+        <v>6.6052415480606502E-3</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>1.2228669776961E-2</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>1.9932453587810477E-2</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547853</v>
+        <v>5.9560747663968037E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>0.13044746459297449</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>0.22176705480527237</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.61968759484080538</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634715</v>
+        <v>0.84173045248877276</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>0.73370210798678293</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>0.79033978119053039</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>0.89403907654533255</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791284</v>
+        <v>0.73111890520608735</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>1.105892796013082</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>1.4207862789519226</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>1.6367219178401564</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>2.5792286927565069</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.24413957996967</v>
+        <v>2.674722724166628</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.4894068390269206</v>
+        <v>1.5011659952729709E-2</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.5847140718253163</v>
+        <v>1.5019309612431806E-2</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6279904012240642</v>
+        <v>1.5034746188206063E-2</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.016143852723438</v>
+        <v>1.5060164367345794E-2</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.179383169457129</v>
+        <v>1.5103088727084324E-2</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>27.988448853845608</v>
+        <v>1.5133928566876434E-2</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.906483016258569</v>
+        <v>1.5478245778084258E-2</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.049715320004928</v>
+        <v>1.6039859466348842E-2</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.677243477618731</v>
+        <v>1.7039195253073514E-2</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.823781978906723</v>
+        <v>1.9225931442157639E-2</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.23566901633887</v>
+        <v>2.5831172990218289E-2</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.01517623872044</v>
+        <v>3.8059842767179289E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.38243451304933</v>
+        <v>5.7992296354989765E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.16125708559719</v>
+        <v>0.1175530440189578</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.87595348123472</v>
+        <v>0.24800050861193229</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.86738697656125</v>
+        <v>0.46976756341720466</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.47151843651602</v>
+        <v>1.0894551582580101</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.91609057615074</v>
+        <v>1.9311856107467829</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.61745547989244</v>
+        <v>2.6648877187335658</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.07889755275835</v>
+        <v>3.4552274999240962</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.47901514323723</v>
+        <v>4.3492665764694287</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.1813305911501</v>
+        <v>5.0803854816755161</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0709243794984</v>
+        <v>6.1862782776885981</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.4129198085657</v>
+        <v>7.6070645566405206</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5391930226656</v>
+        <v>9.243786474480677</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2270528332679</v>
+        <v>11.823015167237184</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4711924132375</v>
+        <v>14.497737891403812</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>2044.7127481095999</v>
+        <v>-19.260706412233727</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>943.85208868844995</v>
+        <v>-10.020420723909243</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4360402.4278179826</v>
+        <v>800.26301173198885</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.092358324111199</v>
+        <v>9.0700956708759146E-6</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>31.043997698176248</v>
+        <v>4.0776113108594948E-6</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.183603651577855</v>
+        <v>1.2072975948512217E-9</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.97774090379755</v>
+        <v>3.7629622817149501E-6</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>367.15860496675492</v>
+        <v>8.3920949231459141E-6</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>782.01039969934686</v>
+        <v>7.8607222657249763E-5</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1511.380931713441</v>
+        <v>2.1088134568172763E-4</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2916.9413305173352</v>
+        <v>6.2300861545961565E-4</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5420.0874911908186</v>
+        <v>1.5179443065281295E-3</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9956.6035794500331</v>
+        <v>4.7411006156161944E-4</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17454.814231972836</v>
+        <v>8.6804303263786301E-3</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29414.711501379512</v>
+        <v>0.22084375138000828</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>48313.989431601389</v>
+        <v>6.3504388264301959</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>72950.942999321822</v>
+        <v>35.395141771622015</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>104207.28056824672</v>
+        <v>46.463692514222991</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>167434.6971547232</v>
+        <v>67.400302438930652</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>245525.80853348735</v>
+        <v>118.29725803960946</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>351418.00686006999</v>
+        <v>124.98577080747002</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>496946.64750645612</v>
+        <v>121.17912635049976</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>687606.58431885589</v>
+        <v>108.22661585371812</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>905994.27321258292</v>
+        <v>86.349331490401553</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1211894.1914611694</v>
+        <v>85.382879601854285</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1613730.4948034759</v>
+        <v>43.003714187274817</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>2150049.2768410365</v>
+        <v>56.268334844222132</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2669537.8819232718</v>
+        <v>130.49303181424204</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>3161742.9285297343</v>
+        <v>233.32516164113403</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>4180850.2222819123</v>
+        <v>370.97481149826143</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>6056.8926983678512</v>
+        <v>-57.054484617226123</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>4855.7624487091634</v>
+        <v>-51.551279331317346</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6544.7719695345095</v>
+        <v>86.177899365773442</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4774068390269206</v>
+        <v>3.0116599527297092E-3</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5717140718253164</v>
+        <v>2.019309612431807E-3</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.6129904012240637</v>
+        <v>3.474618820606401E-5</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.999143852723439</v>
+        <v>1.9398356326542077E-3</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.161383169457128</v>
+        <v>2.8969112729156747E-3</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.964448853845607</v>
+        <v>8.8660714331235662E-3</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.876483016258568</v>
+        <v>1.4521754221915741E-2</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>54.008715320004931</v>
+        <v>2.496014053365116E-2</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.621243477618734</v>
+        <v>3.8960804746926488E-2</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.782781978906726</v>
+        <v>2.1774068557842363E-2</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>132.11666901633888</v>
+        <v>9.3168827009781713E-2</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>171.50717623872043</v>
+        <v>0.46994015723282073</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>219.80443451304933</v>
+        <v>2.5200077036450099</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>270.09432241223033</v>
+        <v>5.9493816293478785</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>322.81152483801861</v>
+        <v>6.8164281346041484</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>409.18785069295888</v>
+        <v>8.2097687201851581</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>495.5056089828725</v>
+        <v>10.876454295385489</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>592.8052014448507</v>
+        <v>11.179703520553218</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>704.94442866544887</v>
+        <v>11.008139095710035</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>829.22046786054182</v>
+        <v>10.403202192292435</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>951.83731446743718</v>
+        <v>9.2924340993305705</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1100.8606594211501</v>
+        <v>9.2402856883244837</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1270.3269243794985</v>
+        <v>6.5577217223114017</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1466.3046330285656</v>
+        <v>7.5012222233594796</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1633.8720518826656</v>
+        <v>11.423354665519321</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1778.1290528332679</v>
+        <v>15.274984832762815</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>2044.7127481095999</v>
+        <v>19.260706412233727</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
